--- a/priv/statistics/ora_bench_status_1.3.0_std_vm.xlsx
+++ b/priv/statistics/ora_bench_status_1.3.0_std_vm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\ora_bench\priv\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F75E0-C811-4956-ADB5-7117FAEFB3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399CD129-1A72-45FE-BBA8-186EA072B587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{24FBFF13-7D84-47D8-BE01-FDEF08B89736}"/>
   </bookViews>
@@ -24,12 +24,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
   <si>
     <t>Language</t>
   </si>
@@ -115,12 +122,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>batch.sz</t>
-  </si>
-  <si>
-    <t>trans.sz</t>
-  </si>
-  <si>
     <t>min.</t>
   </si>
   <si>
@@ -130,15 +131,6 @@
     <t>average</t>
   </si>
   <si>
-    <t>core.mlt</t>
-  </si>
-  <si>
-    <t>JDBC.jl</t>
-  </si>
-  <si>
-    <t>Programming Language</t>
-  </si>
-  <si>
     <t>Oracle.jl</t>
   </si>
   <si>
@@ -149,6 +141,33 @@
   </si>
   <si>
     <t>Rust-oracle</t>
+  </si>
+  <si>
+    <t>Pos.</t>
+  </si>
+  <si>
+    <t>cx_oracle</t>
+  </si>
+  <si>
+    <t>one batch - multi-threaded</t>
+  </si>
+  <si>
+    <t>one batch - single-threaded</t>
+  </si>
+  <si>
+    <t>batch size 512 - single-threaded</t>
+  </si>
+  <si>
+    <t>batch size 512 - multi-threaded</t>
+  </si>
+  <si>
+    <t>m-thread</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>batch size</t>
   </si>
 </sst>
 </file>
@@ -157,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +202,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,14 +216,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,15 +223,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,18 +259,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -272,14 +269,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -312,43 +307,34 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,515 +649,711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8192CCCE-8A84-4ABC-BAEB-FE6F2C6D1859}">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="20">
+        <v>5792</v>
+      </c>
+      <c r="E4" s="20">
+        <v>7541</v>
+      </c>
+      <c r="F4" s="20">
+        <v>6593</v>
+      </c>
+      <c r="G4" s="20">
+        <v>70648</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="20">
+        <v>4118</v>
+      </c>
+      <c r="N4" s="20">
+        <v>7004</v>
+      </c>
+      <c r="O4" s="20">
+        <v>5099</v>
+      </c>
+      <c r="P4" s="20">
+        <v>56155</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>O4/F4</f>
+        <v>0.7733960260882754</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="29" t="s">
+      <c r="C5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="20">
+        <v>6896</v>
+      </c>
+      <c r="I5" s="20">
+        <v>10639</v>
+      </c>
+      <c r="J5" s="20">
+        <v>9430</v>
+      </c>
+      <c r="K5" s="20">
+        <v>236924</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="20">
+        <v>1631</v>
+      </c>
+      <c r="S5" s="20">
+        <v>4356</v>
+      </c>
+      <c r="T5" s="27">
+        <v>3503</v>
+      </c>
+      <c r="U5" s="20">
+        <v>181050</v>
+      </c>
+      <c r="V5" s="21">
+        <f>T5/J5</f>
+        <v>0.37147401908801697</v>
+      </c>
+      <c r="W5" s="23"/>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="C6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20">
+        <v>3159</v>
+      </c>
+      <c r="E6" s="20">
+        <v>5848</v>
+      </c>
+      <c r="F6" s="27">
+        <v>3875</v>
+      </c>
+      <c r="G6" s="20">
+        <v>42085</v>
+      </c>
+      <c r="H6" s="20">
+        <v>2446</v>
+      </c>
+      <c r="I6" s="20">
+        <v>7822</v>
+      </c>
+      <c r="J6" s="20">
+        <v>4531</v>
+      </c>
+      <c r="K6" s="20">
+        <v>48662</v>
+      </c>
+      <c r="L6" s="21">
+        <f>J6/F6</f>
+        <v>1.1692903225806452</v>
+      </c>
+      <c r="M6" s="20">
+        <v>3224</v>
+      </c>
+      <c r="N6" s="20">
+        <v>4699</v>
+      </c>
+      <c r="O6" s="27">
+        <v>3707</v>
+      </c>
+      <c r="P6" s="20">
+        <v>40435</v>
+      </c>
+      <c r="Q6" s="21">
+        <f t="shared" ref="Q6:Q11" si="0">O6/F6</f>
+        <v>0.95664516129032262</v>
+      </c>
+      <c r="R6" s="20">
+        <v>2485</v>
+      </c>
+      <c r="S6" s="20">
+        <v>6636</v>
+      </c>
+      <c r="T6" s="20">
+        <v>3783</v>
+      </c>
+      <c r="U6" s="20">
+        <v>41216</v>
+      </c>
+      <c r="V6" s="21">
+        <f>T6/J6</f>
+        <v>0.8349150297947473</v>
+      </c>
+      <c r="W6" s="21">
+        <f>T6/O6</f>
+        <v>1.0205017534394389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="29" t="s">
+      <c r="C7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20">
+        <v>3505</v>
+      </c>
+      <c r="E7" s="20">
+        <v>6478</v>
+      </c>
+      <c r="F7" s="20">
+        <v>4780</v>
+      </c>
+      <c r="G7" s="20">
+        <v>51026</v>
+      </c>
+      <c r="H7" s="20">
+        <v>2593</v>
+      </c>
+      <c r="I7" s="20">
+        <v>6270</v>
+      </c>
+      <c r="J7" s="20">
+        <v>4061</v>
+      </c>
+      <c r="K7" s="20">
+        <v>43812</v>
+      </c>
+      <c r="L7" s="21">
+        <f>J7/F7</f>
+        <v>0.84958158995815902</v>
+      </c>
+      <c r="M7" s="20">
+        <v>3816</v>
+      </c>
+      <c r="N7" s="20">
+        <v>7881</v>
+      </c>
+      <c r="O7" s="20">
+        <v>5142</v>
+      </c>
+      <c r="P7" s="20">
+        <v>54640</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="0"/>
+        <v>1.0757322175732218</v>
+      </c>
+      <c r="R7" s="20">
+        <v>2582</v>
+      </c>
+      <c r="S7" s="20">
+        <v>6896</v>
+      </c>
+      <c r="T7" s="20">
+        <v>4251</v>
+      </c>
+      <c r="U7" s="20">
+        <v>45746</v>
+      </c>
+      <c r="V7" s="21">
+        <f>T7/J7</f>
+        <v>1.046786505786752</v>
+      </c>
+      <c r="W7" s="21">
+        <f>T7/O7</f>
+        <v>0.82672112018669774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="28" t="s">
+      <c r="C8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="20">
+        <v>6722</v>
+      </c>
+      <c r="E8" s="20">
+        <v>9396</v>
+      </c>
+      <c r="F8" s="20">
+        <v>7143</v>
+      </c>
+      <c r="G8" s="20">
+        <v>87624</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="20">
+        <v>7205</v>
+      </c>
+      <c r="N8" s="20">
+        <v>8287</v>
+      </c>
+      <c r="O8" s="20">
+        <v>7415</v>
+      </c>
+      <c r="P8" s="20">
+        <v>90716</v>
+      </c>
+      <c r="Q8" s="21">
+        <f t="shared" si="0"/>
+        <v>1.0380792384152318</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="C9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3359</v>
+      </c>
+      <c r="E9" s="20">
+        <v>6273</v>
+      </c>
+      <c r="F9" s="20">
+        <v>4663</v>
+      </c>
+      <c r="G9" s="20">
+        <v>49175</v>
+      </c>
+      <c r="H9" s="20">
+        <v>4120</v>
+      </c>
+      <c r="I9" s="20">
+        <v>33776</v>
+      </c>
+      <c r="J9" s="20">
+        <v>7807</v>
+      </c>
+      <c r="K9" s="20">
+        <v>80564</v>
+      </c>
+      <c r="L9" s="21">
+        <f>J9/F9</f>
+        <v>1.6742440488955608</v>
+      </c>
+      <c r="M9" s="20">
+        <v>3770</v>
+      </c>
+      <c r="N9" s="20">
+        <v>6000</v>
+      </c>
+      <c r="O9" s="20">
+        <v>5051</v>
+      </c>
+      <c r="P9" s="20">
+        <v>53004</v>
+      </c>
+      <c r="Q9" s="21">
+        <f t="shared" si="0"/>
+        <v>1.0832082350418186</v>
+      </c>
+      <c r="R9" s="20">
+        <v>3789</v>
+      </c>
+      <c r="S9" s="20">
+        <v>11578</v>
+      </c>
+      <c r="T9" s="20">
+        <v>6547</v>
+      </c>
+      <c r="U9" s="20">
+        <v>68037</v>
+      </c>
+      <c r="V9" s="21">
+        <f>T9/J9</f>
+        <v>0.83860637889073908</v>
+      </c>
+      <c r="W9" s="21">
+        <f>T9/O9</f>
+        <v>1.2961789744605028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-    </row>
-    <row r="2" spans="1:43" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="29" t="s">
+      <c r="C10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3669</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5495</v>
+      </c>
+      <c r="F10" s="20">
+        <v>4376</v>
+      </c>
+      <c r="G10" s="20">
+        <v>46199</v>
+      </c>
+      <c r="H10" s="20">
+        <v>2500</v>
+      </c>
+      <c r="I10" s="20">
+        <v>6068</v>
+      </c>
+      <c r="J10" s="27">
+        <v>3919</v>
+      </c>
+      <c r="K10" s="20">
+        <v>41607</v>
+      </c>
+      <c r="L10" s="21">
+        <f>J10/F10</f>
+        <v>0.8955667276051188</v>
+      </c>
+      <c r="M10" s="20">
+        <v>3974</v>
+      </c>
+      <c r="N10" s="20">
+        <v>6300</v>
+      </c>
+      <c r="O10" s="20">
+        <v>5217</v>
+      </c>
+      <c r="P10" s="20">
+        <v>54577</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="0"/>
+        <v>1.1921846435100549</v>
+      </c>
+      <c r="R10" s="20">
+        <v>2927</v>
+      </c>
+      <c r="S10" s="20">
+        <v>7203</v>
+      </c>
+      <c r="T10" s="20">
+        <v>4369</v>
+      </c>
+      <c r="U10" s="20">
+        <v>46186</v>
+      </c>
+      <c r="V10" s="21">
+        <f>T10/J10</f>
+        <v>1.114825210512886</v>
+      </c>
+      <c r="W10" s="21">
+        <f>T10/O10</f>
+        <v>0.8374544757523481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="30"/>
-    </row>
-    <row r="3" spans="1:43" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ3" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>0</v>
-      </c>
-      <c r="B4" s="27">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>0</v>
-      </c>
-      <c r="B5" s="27">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27">
-        <v>0</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <v>512</v>
-      </c>
-      <c r="B6" s="27">
-        <v>0</v>
-      </c>
-      <c r="C6" s="27">
-        <v>512</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <v>512</v>
-      </c>
-      <c r="B7" s="27">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27">
-        <v>512</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-    </row>
-    <row r="9" spans="1:43" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D11" s="20">
+        <v>3750</v>
+      </c>
+      <c r="E11" s="20">
+        <v>6388</v>
+      </c>
+      <c r="F11" s="20">
+        <v>4536</v>
+      </c>
+      <c r="G11" s="20">
+        <v>47435</v>
+      </c>
+      <c r="H11" s="20">
+        <v>2741</v>
+      </c>
+      <c r="I11" s="20">
+        <v>7033</v>
+      </c>
+      <c r="J11" s="20">
+        <v>4298</v>
+      </c>
+      <c r="K11" s="20">
+        <v>44975</v>
+      </c>
+      <c r="L11" s="21">
+        <f>J11/F11</f>
+        <v>0.94753086419753085</v>
+      </c>
+      <c r="M11" s="20">
+        <v>4057</v>
+      </c>
+      <c r="N11" s="20">
+        <v>6830</v>
+      </c>
+      <c r="O11" s="20">
+        <v>5568</v>
+      </c>
+      <c r="P11" s="20">
+        <v>57689</v>
+      </c>
+      <c r="Q11" s="21">
+        <f t="shared" si="0"/>
+        <v>1.2275132275132274</v>
+      </c>
+      <c r="R11" s="20">
+        <v>3044</v>
+      </c>
+      <c r="S11" s="20">
+        <v>6457</v>
+      </c>
+      <c r="T11" s="20">
+        <v>4197</v>
+      </c>
+      <c r="U11" s="20">
+        <v>44054</v>
+      </c>
+      <c r="V11" s="21">
+        <f>T11/J11</f>
+        <v>0.97650069799906936</v>
+      </c>
+      <c r="W11" s="21">
+        <f>T11/O11</f>
+        <v>0.7537715517241379</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AQ11">
+    <sortCondition ref="A3:A11"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
